--- a/excel/fqa/A/FQA_8월.xlsx
+++ b/excel/fqa/A/FQA_8월.xlsx
@@ -15796,8 +15796,16 @@
       </c>
       <c r="AH7" s="26" t="n"/>
       <c r="AI7" s="26" t="n"/>
-      <c r="AJ7" s="26" t="n"/>
-      <c r="AK7" s="26" t="n"/>
+      <c r="AJ7" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="AK7" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="68" t="n"/>
@@ -15839,8 +15847,16 @@
       </c>
       <c r="AH8" s="26" t="n"/>
       <c r="AI8" s="26" t="n"/>
-      <c r="AJ8" s="26" t="n"/>
-      <c r="AK8" s="26" t="n"/>
+      <c r="AJ8" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="AK8" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="68" t="n"/>
@@ -15882,8 +15898,16 @@
       </c>
       <c r="AH9" s="26" t="n"/>
       <c r="AI9" s="26" t="n"/>
-      <c r="AJ9" s="26" t="n"/>
-      <c r="AK9" s="26" t="n"/>
+      <c r="AJ9" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="AK9" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="67" t="n"/>
@@ -15925,8 +15949,16 @@
       </c>
       <c r="AH10" s="26" t="n"/>
       <c r="AI10" s="26" t="n"/>
-      <c r="AJ10" s="26" t="n"/>
-      <c r="AK10" s="26" t="n"/>
+      <c r="AJ10" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="AK10" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="12.75" customHeight="1" s="56">
       <c r="A11" s="26" t="n">
@@ -15991,8 +16023,16 @@
       </c>
       <c r="AH11" s="26" t="n"/>
       <c r="AI11" s="26" t="n"/>
-      <c r="AJ11" s="26" t="n"/>
-      <c r="AK11" s="26" t="n"/>
+      <c r="AJ11" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="AK11" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="12.75" customHeight="1" s="56">
       <c r="A12" s="67" t="n"/>
@@ -16096,8 +16136,16 @@
       </c>
       <c r="AH13" s="26" t="n"/>
       <c r="AI13" s="26" t="n"/>
-      <c r="AJ13" s="26" t="n"/>
-      <c r="AK13" s="26" t="n"/>
+      <c r="AJ13" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="AK13" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="12.75" customHeight="1" s="56">
       <c r="A14" s="67" t="n"/>
@@ -16201,8 +16249,16 @@
       </c>
       <c r="AH15" s="26" t="n"/>
       <c r="AI15" s="26" t="n"/>
-      <c r="AJ15" s="26" t="n"/>
-      <c r="AK15" s="26" t="n"/>
+      <c r="AJ15" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="AK15" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="12.75" customHeight="1" s="56">
       <c r="A16" s="67" t="n"/>
@@ -16306,8 +16362,16 @@
       </c>
       <c r="AH17" s="26" t="n"/>
       <c r="AI17" s="26" t="n"/>
-      <c r="AJ17" s="26" t="n"/>
-      <c r="AK17" s="26" t="n"/>
+      <c r="AJ17" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="AK17" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="12.75" customHeight="1" s="56">
       <c r="A18" s="67" t="n"/>
@@ -16411,8 +16475,16 @@
       </c>
       <c r="AH19" s="26" t="n"/>
       <c r="AI19" s="26" t="n"/>
-      <c r="AJ19" s="26" t="n"/>
-      <c r="AK19" s="26" t="n"/>
+      <c r="AJ19" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="AK19" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="12.75" customHeight="1" s="56">
       <c r="A20" s="67" t="n"/>
@@ -16517,8 +16589,16 @@
       </c>
       <c r="AH21" s="26" t="n"/>
       <c r="AI21" s="26" t="n"/>
-      <c r="AJ21" s="26" t="n"/>
-      <c r="AK21" s="26" t="n"/>
+      <c r="AJ21" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="AK21" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="23.25" customHeight="1" s="56">
       <c r="A22" s="67" t="n"/>
@@ -16621,8 +16701,16 @@
       </c>
       <c r="AH23" s="26" t="n"/>
       <c r="AI23" s="26" t="n"/>
-      <c r="AJ23" s="26" t="n"/>
-      <c r="AK23" s="26" t="n"/>
+      <c r="AJ23" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="AK23" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="12.75" customHeight="1" s="56">
       <c r="A24" s="67" t="n"/>
@@ -16726,8 +16814,16 @@
       </c>
       <c r="AH25" s="26" t="n"/>
       <c r="AI25" s="26" t="n"/>
-      <c r="AJ25" s="26" t="n"/>
-      <c r="AK25" s="26" t="n"/>
+      <c r="AJ25" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="AK25" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="12.75" customHeight="1" s="56">
       <c r="A26" s="67" t="n"/>
@@ -16831,8 +16927,16 @@
       </c>
       <c r="AH27" s="26" t="n"/>
       <c r="AI27" s="26" t="n"/>
-      <c r="AJ27" s="26" t="n"/>
-      <c r="AK27" s="26" t="n"/>
+      <c r="AJ27" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="AK27" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="12.75" customHeight="1" s="56">
       <c r="A28" s="67" t="n"/>
@@ -16904,7 +17008,7 @@
       </c>
       <c r="G29" s="46" t="inlineStr">
         <is>
-          <t>최근 교체일: 240827   다음 교체일: 241125</t>
+          <t>최근 교체일: 240831   다음 교체일: 241129</t>
         </is>
       </c>
       <c r="H29" s="57" t="n"/>
@@ -16969,7 +17073,7 @@
       </c>
       <c r="G30" s="46" t="inlineStr">
         <is>
-          <t>최근 교체일: 240827   다음 교체일: 250827</t>
+          <t>최근 교체일: 240831   다음 교체일: 250831</t>
         </is>
       </c>
       <c r="H30" s="57" t="n"/>
@@ -17065,8 +17169,16 @@
       </c>
       <c r="AH31" s="26" t="n"/>
       <c r="AI31" s="26" t="n"/>
-      <c r="AJ31" s="26" t="n"/>
-      <c r="AK31" s="26" t="n"/>
+      <c r="AJ31" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="AK31" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="12" customHeight="1" s="56">
       <c r="A32" s="67" t="n"/>
@@ -17160,8 +17272,16 @@
       </c>
       <c r="AH33" s="26" t="n"/>
       <c r="AI33" s="26" t="n"/>
-      <c r="AJ33" s="26" t="n"/>
-      <c r="AK33" s="26" t="n"/>
+      <c r="AJ33" s="26" t="inlineStr">
+        <is>
+          <t>차현숙</t>
+        </is>
+      </c>
+      <c r="AK33" s="26" t="inlineStr">
+        <is>
+          <t>테스트</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="30.75" customHeight="1" s="56">
       <c r="A34" s="64" t="n"/>
@@ -17207,8 +17327,16 @@
       </c>
       <c r="AH34" s="26" t="n"/>
       <c r="AI34" s="26" t="n"/>
-      <c r="AJ34" s="26" t="n"/>
-      <c r="AK34" s="26" t="n"/>
+      <c r="AJ34" s="26" t="inlineStr">
+        <is>
+          <t>차현숙</t>
+        </is>
+      </c>
+      <c r="AK34" s="26" t="inlineStr">
+        <is>
+          <t>테스트</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="7" t="n"/>
@@ -17529,9 +17657,9 @@
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="AJ11:AJ12"/>
+    <mergeCell ref="E19:E20"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="J15:J16"/>
-    <mergeCell ref="E19:E20"/>
     <mergeCell ref="L15:L16"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="I25:I26"/>
@@ -18081,8 +18209,16 @@
       </c>
       <c r="AH7" s="26" t="n"/>
       <c r="AI7" s="26" t="n"/>
-      <c r="AJ7" s="26" t="n"/>
-      <c r="AK7" s="26" t="n"/>
+      <c r="AJ7" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="AK7" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="68" t="n"/>
@@ -18124,8 +18260,16 @@
       </c>
       <c r="AH8" s="26" t="n"/>
       <c r="AI8" s="26" t="n"/>
-      <c r="AJ8" s="26" t="n"/>
-      <c r="AK8" s="26" t="n"/>
+      <c r="AJ8" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="AK8" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="68" t="n"/>
@@ -18182,8 +18326,16 @@
       </c>
       <c r="AH9" s="26" t="n"/>
       <c r="AI9" s="26" t="n"/>
-      <c r="AJ9" s="26" t="n"/>
-      <c r="AK9" s="26" t="n"/>
+      <c r="AJ9" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="AK9" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="67" t="n"/>
@@ -18225,8 +18377,16 @@
       </c>
       <c r="AH10" s="26" t="n"/>
       <c r="AI10" s="26" t="n"/>
-      <c r="AJ10" s="26" t="n"/>
-      <c r="AK10" s="26" t="n"/>
+      <c r="AJ10" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="AK10" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="16.5" customHeight="1" s="56">
       <c r="A11" s="26" t="n">
@@ -18292,8 +18452,16 @@
       </c>
       <c r="AH11" s="26" t="n"/>
       <c r="AI11" s="26" t="n"/>
-      <c r="AJ11" s="26" t="n"/>
-      <c r="AK11" s="26" t="n"/>
+      <c r="AJ11" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="AK11" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="16.5" customHeight="1" s="56">
       <c r="A12" s="68" t="n"/>
@@ -18389,8 +18557,16 @@
       </c>
       <c r="AH13" s="26" t="n"/>
       <c r="AI13" s="26" t="n"/>
-      <c r="AJ13" s="26" t="n"/>
-      <c r="AK13" s="26" t="n"/>
+      <c r="AJ13" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="AK13" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="16.5" customHeight="1" s="56">
       <c r="A14" s="67" t="n"/>
@@ -18495,8 +18671,16 @@
       </c>
       <c r="AH15" s="26" t="n"/>
       <c r="AI15" s="26" t="n"/>
-      <c r="AJ15" s="26" t="n"/>
-      <c r="AK15" s="26" t="n"/>
+      <c r="AJ15" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="AK15" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="16.5" customHeight="1" s="56">
       <c r="A16" s="68" t="n"/>
@@ -18592,8 +18776,16 @@
       </c>
       <c r="AH17" s="26" t="n"/>
       <c r="AI17" s="26" t="n"/>
-      <c r="AJ17" s="26" t="n"/>
-      <c r="AK17" s="26" t="n"/>
+      <c r="AJ17" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="AK17" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="16.5" customHeight="1" s="56">
       <c r="A18" s="67" t="n"/>
@@ -18698,8 +18890,16 @@
       </c>
       <c r="AH19" s="26" t="n"/>
       <c r="AI19" s="26" t="n"/>
-      <c r="AJ19" s="26" t="n"/>
-      <c r="AK19" s="26" t="n"/>
+      <c r="AJ19" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="AK19" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="16.5" customHeight="1" s="56">
       <c r="A20" s="68" t="n"/>
@@ -18795,8 +18995,16 @@
       </c>
       <c r="AH21" s="26" t="n"/>
       <c r="AI21" s="26" t="n"/>
-      <c r="AJ21" s="26" t="n"/>
-      <c r="AK21" s="26" t="n"/>
+      <c r="AJ21" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="AK21" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="16.5" customHeight="1" s="56">
       <c r="A22" s="67" t="n"/>
@@ -18901,8 +19109,16 @@
       </c>
       <c r="AH23" s="26" t="n"/>
       <c r="AI23" s="26" t="n"/>
-      <c r="AJ23" s="26" t="n"/>
-      <c r="AK23" s="26" t="n"/>
+      <c r="AJ23" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="AK23" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="16.5" customHeight="1" s="56">
       <c r="A24" s="68" t="n"/>
@@ -18998,8 +19214,16 @@
       </c>
       <c r="AH25" s="26" t="n"/>
       <c r="AI25" s="26" t="n"/>
-      <c r="AJ25" s="26" t="n"/>
-      <c r="AK25" s="26" t="n"/>
+      <c r="AJ25" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="AK25" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="16.5" customHeight="1" s="56">
       <c r="A26" s="67" t="n"/>
@@ -19105,8 +19329,16 @@
       </c>
       <c r="AH27" s="26" t="n"/>
       <c r="AI27" s="26" t="n"/>
-      <c r="AJ27" s="26" t="n"/>
-      <c r="AK27" s="26" t="n"/>
+      <c r="AJ27" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="AK27" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="16.5" customHeight="1" s="56">
       <c r="A28" s="68" t="n"/>
@@ -19201,8 +19433,16 @@
       </c>
       <c r="AH29" s="26" t="n"/>
       <c r="AI29" s="26" t="n"/>
-      <c r="AJ29" s="26" t="n"/>
-      <c r="AK29" s="26" t="n"/>
+      <c r="AJ29" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="AK29" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="16.5" customHeight="1" s="56">
       <c r="A30" s="67" t="n"/>
@@ -19308,8 +19548,16 @@
       </c>
       <c r="AH31" s="26" t="n"/>
       <c r="AI31" s="26" t="n"/>
-      <c r="AJ31" s="26" t="n"/>
-      <c r="AK31" s="26" t="n"/>
+      <c r="AJ31" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="AK31" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="16.5" customHeight="1" s="56">
       <c r="A32" s="68" t="n"/>
@@ -19404,8 +19652,16 @@
       </c>
       <c r="AH33" s="26" t="n"/>
       <c r="AI33" s="26" t="n"/>
-      <c r="AJ33" s="26" t="n"/>
-      <c r="AK33" s="26" t="n"/>
+      <c r="AJ33" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="AK33" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="16.5" customHeight="1" s="56">
       <c r="A34" s="67" t="n"/>
@@ -19510,8 +19766,16 @@
       </c>
       <c r="AH35" s="26" t="n"/>
       <c r="AI35" s="26" t="n"/>
-      <c r="AJ35" s="26" t="n"/>
-      <c r="AK35" s="26" t="n"/>
+      <c r="AJ35" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="AK35" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="16.5" customHeight="1" s="56">
       <c r="A36" s="68" t="n"/>
@@ -19607,8 +19871,16 @@
       </c>
       <c r="AH37" s="26" t="n"/>
       <c r="AI37" s="26" t="n"/>
-      <c r="AJ37" s="26" t="n"/>
-      <c r="AK37" s="26" t="n"/>
+      <c r="AJ37" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="AK37" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="38" ht="16.5" customHeight="1" s="56">
       <c r="A38" s="67" t="n"/>
@@ -19713,8 +19985,16 @@
       </c>
       <c r="AH39" s="26" t="n"/>
       <c r="AI39" s="26" t="n"/>
-      <c r="AJ39" s="26" t="n"/>
-      <c r="AK39" s="26" t="n"/>
+      <c r="AJ39" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="AK39" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="40" ht="16.5" customHeight="1" s="56">
       <c r="A40" s="68" t="n"/>
@@ -19810,8 +20090,16 @@
       </c>
       <c r="AH41" s="26" t="n"/>
       <c r="AI41" s="26" t="n"/>
-      <c r="AJ41" s="26" t="n"/>
-      <c r="AK41" s="26" t="n"/>
+      <c r="AJ41" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="AK41" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="42" ht="16.5" customHeight="1" s="56">
       <c r="A42" s="67" t="n"/>
@@ -19916,8 +20204,16 @@
       </c>
       <c r="AH43" s="26" t="n"/>
       <c r="AI43" s="26" t="n"/>
-      <c r="AJ43" s="26" t="n"/>
-      <c r="AK43" s="26" t="n"/>
+      <c r="AJ43" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="AK43" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="44" ht="16.5" customHeight="1" s="56">
       <c r="A44" s="68" t="n"/>
@@ -20013,8 +20309,16 @@
       </c>
       <c r="AH45" s="26" t="n"/>
       <c r="AI45" s="26" t="n"/>
-      <c r="AJ45" s="26" t="n"/>
-      <c r="AK45" s="26" t="n"/>
+      <c r="AJ45" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="AK45" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
     </row>
     <row r="46" ht="16.5" customHeight="1" s="56">
       <c r="A46" s="67" t="n"/>
